--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_316__Reeval_Sobol_Modell_1.1.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.1_KS_Holdout_seed_0/metrics/Trial_316__Reeval_Sobol_Modell_1.1.xlsx
@@ -6133,16 +6133,16 @@
                   <c:v>41.87516403198242</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2905506491661072</c:v>
+                  <c:v>0.2905483841896057</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>40.62946319580078</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.90262603759766</c:v>
+                  <c:v>53.90262222290039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>54.27270126342773</c:v>
+                  <c:v>54.27269744873047</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>47.6452751159668</c:v>
@@ -6151,13 +6151,13 @@
                   <c:v>0.28854700922966</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05644657090306282</c:v>
+                  <c:v>0.05644429102540016</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.398950815200806</c:v>
+                  <c:v>2.398948431015015</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.64785766601562</c:v>
+                  <c:v>47.64785385131836</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>-1.451953172683716</c:v>
@@ -6172,7 +6172,7 @@
                   <c:v>41.07049179077148</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>54.82847595214844</c:v>
+                  <c:v>54.82846832275391</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>57.33578491210938</c:v>
@@ -6184,19 +6184,19 @@
                   <c:v>43.70243453979492</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.8995754718780518</c:v>
+                  <c:v>0.8995732069015503</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>52.45537948608398</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>55.92996215820312</c:v>
+                  <c:v>55.92996597290039</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5422864556312561</c:v>
+                  <c:v>0.5422887206077576</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.612908840179443</c:v>
+                  <c:v>2.612906694412231</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>33.09698486328125</c:v>
@@ -6205,16 +6205,16 @@
                   <c:v>55.2459831237793</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>52.77684020996094</c:v>
+                  <c:v>52.77683639526367</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>49.97054672241211</c:v>
+                  <c:v>49.97053909301758</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>-1.149907112121582</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.240673303604126</c:v>
+                  <c:v>2.240675687789917</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.28854700922966</c:v>
@@ -6223,7 +6223,7 @@
                   <c:v>0.28854700922966</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.782572269439697</c:v>
+                  <c:v>2.782570123672485</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.28854700922966</c:v>
@@ -6235,10 +6235,10 @@
                   <c:v>54.19292068481445</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>49.18053436279297</c:v>
+                  <c:v>49.1805305480957</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42.66081619262695</c:v>
+                  <c:v>42.66082000732422</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-2.607511043548584</c:v>
@@ -6247,7 +6247,7 @@
                   <c:v>48.36606216430664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.28996658325195</c:v>
+                  <c:v>56.28997039794922</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>56.13861465454102</c:v>
@@ -6271,13 +6271,13 @@
                   <c:v>0.261535257101059</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-1.529639840126038</c:v>
+                  <c:v>-1.529637575149536</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0.28854700922966</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>16.01747894287109</c:v>
+                  <c:v>16.01748085021973</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>51.85846328735352</c:v>
@@ -6286,7 +6286,7 @@
                   <c:v>56.08604049682617</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.3781804144382477</c:v>
+                  <c:v>0.3781781196594238</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>2.085338830947876</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>51.59001159667969</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-1.342814326286316</c:v>
+                  <c:v>-1.342812061309814</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>52.35828399658203</c:v>
@@ -6307,19 +6307,19 @@
                   <c:v>0.28854700922966</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>54.13768768310547</c:v>
+                  <c:v>54.1376953125</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>44.76834106445312</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8959055542945862</c:v>
+                  <c:v>0.8959009647369385</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>-1.408146262168884</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.408793449401855</c:v>
+                  <c:v>-2.408795833587646</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>42.69196319580078</c:v>
@@ -6328,13 +6328,13 @@
                   <c:v>2.492160797119141</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.2996731102466583</c:v>
+                  <c:v>0.2996708154678345</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.3052577972412109</c:v>
+                  <c:v>0.3052555322647095</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>50.53239822387695</c:v>
+                  <c:v>50.53240203857422</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>47.83081436157227</c:v>
@@ -6349,19 +6349,19 @@
                   <c:v>50.4708137512207</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.650408625602722</c:v>
+                  <c:v>1.650406241416931</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>42.71048355102539</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3.800896883010864</c:v>
+                  <c:v>3.800899267196655</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>44.30995178222656</c:v>
+                  <c:v>44.30995559692383</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.078256130218506</c:v>
+                  <c:v>4.078253746032715</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.28854700922966</c:v>
@@ -6373,7 +6373,7 @@
                   <c:v>47.32289123535156</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>47.53008270263672</c:v>
+                  <c:v>47.53008651733398</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>51.23247146606445</c:v>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2905506491661072</v>
+        <v>0.2905483841896057</v>
       </c>
       <c r="G7">
         <v>77</v>
@@ -7331,7 +7331,7 @@
         <v>40.0699</v>
       </c>
       <c r="F9">
-        <v>53.90262603759766</v>
+        <v>53.90262222290039</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>49.6799</v>
       </c>
       <c r="F10">
-        <v>54.27270126342773</v>
+        <v>54.27269744873047</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7411,7 +7411,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.05644657090306282</v>
+        <v>0.05644429102540016</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.398950815200806</v>
+        <v>2.398948431015015</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>45.6578</v>
       </c>
       <c r="F15">
-        <v>47.64785766601562</v>
+        <v>47.64785385131836</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7551,7 +7551,7 @@
         <v>45.5233</v>
       </c>
       <c r="F20">
-        <v>54.82847595214844</v>
+        <v>54.82846832275391</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8995754718780518</v>
+        <v>0.8995732069015503</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>49.6745</v>
       </c>
       <c r="F26">
-        <v>55.92996215820312</v>
+        <v>55.92996597290039</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.5422864556312561</v>
+        <v>0.5422887206077576</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.612908840179443</v>
+        <v>2.612906694412231</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>51.9912</v>
       </c>
       <c r="F31">
-        <v>52.77684020996094</v>
+        <v>52.77683639526367</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7791,7 +7791,7 @@
         <v>49.7115</v>
       </c>
       <c r="F32">
-        <v>49.97054672241211</v>
+        <v>49.97053909301758</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>2.240673303604126</v>
+        <v>2.240675687789917</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>2.782572269439697</v>
+        <v>2.782570123672485</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>45.4106</v>
       </c>
       <c r="F41">
-        <v>49.18053436279297</v>
+        <v>49.1805305480957</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>42.66081619262695</v>
+        <v>42.66082000732422</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>61.4498</v>
       </c>
       <c r="F45">
-        <v>56.28996658325195</v>
+        <v>56.28997039794922</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>34.2886</v>
       </c>
       <c r="F53">
-        <v>-1.529639840126038</v>
+        <v>-1.529637575149536</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>39.3649</v>
       </c>
       <c r="F55">
-        <v>16.01747894287109</v>
+        <v>16.01748085021973</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.3781804144382477</v>
+        <v>0.3781781196594238</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>-1.342814326286316</v>
+        <v>-1.342812061309814</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>51.173</v>
       </c>
       <c r="F65">
-        <v>54.13768768310547</v>
+        <v>54.1376953125</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.8959055542945862</v>
+        <v>0.8959009647369385</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>-2.408793449401855</v>
+        <v>-2.408795833587646</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.2996731102466583</v>
+        <v>0.2996708154678345</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.3052577972412109</v>
+        <v>0.3052555322647095</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>47.053</v>
       </c>
       <c r="F74">
-        <v>50.53239822387695</v>
+        <v>50.53240203857422</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.650408625602722</v>
+        <v>1.650406241416931</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>3.800896883010864</v>
+        <v>3.800899267196655</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>40.8214</v>
       </c>
       <c r="F82">
-        <v>44.30995178222656</v>
+        <v>44.30995559692383</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>4.078256130218506</v>
+        <v>4.078253746032715</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>26.1928</v>
       </c>
       <c r="F87">
-        <v>47.53008270263672</v>
+        <v>47.53008651733398</v>
       </c>
     </row>
     <row r="88" spans="1:6">
